--- a/VersionRecords/Version 3.4.0/版本Bug和特性计划及评审表v3.4.0_马丁组.xlsx
+++ b/VersionRecords/Version 3.4.0/版本Bug和特性计划及评审表v3.4.0_马丁组.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andubu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 3.4.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="31640" yWindow="1780" windowWidth="28700" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.4.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,11 @@
     <sheet name="需要修改的配置文件" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -303,7 +308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -416,6 +421,20 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -552,7 +571,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,6 +588,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -731,7 +756,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -739,10 +764,12 @@
     <cellStyle name="常规 4" xfId="7"/>
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 9" xfId="3"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1085,31 +1112,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="63.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="18" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="18" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="19" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="18" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="19" customWidth="1"/>
-    <col min="10" max="11" width="11.875" style="18" customWidth="1"/>
-    <col min="12" max="12" width="11.75" style="18" customWidth="1"/>
+    <col min="2" max="2" width="63.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="19" customWidth="1"/>
+    <col min="10" max="11" width="11.83203125" style="18" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="18" customWidth="1"/>
     <col min="13" max="13" width="9" style="19"/>
-    <col min="14" max="14" width="14.125" style="19" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="20" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="20" customWidth="1"/>
     <col min="17" max="17" width="17" style="20" customWidth="1"/>
-    <col min="18" max="18" width="14.125" style="20" customWidth="1"/>
-    <col min="19" max="19" width="51.75" style="19" customWidth="1"/>
-    <col min="20" max="20" width="8.875" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="51.6640625" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" customWidth="1"/>
     <col min="21" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -1172,7 +1199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -1222,7 +1249,7 @@
       <c r="S2" s="35"/>
       <c r="T2" s="36"/>
     </row>
-    <row r="3" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -1272,7 +1299,7 @@
       <c r="S3" s="35"/>
       <c r="T3" s="36"/>
     </row>
-    <row r="4" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -1322,7 +1349,7 @@
       <c r="S4" s="35"/>
       <c r="T4" s="36"/>
     </row>
-    <row r="5" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -1372,7 +1399,7 @@
       <c r="S5" s="35"/>
       <c r="T5" s="36"/>
     </row>
-    <row r="6" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -1422,7 +1449,7 @@
       <c r="S6" s="35"/>
       <c r="T6" s="36"/>
     </row>
-    <row r="7" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -1472,7 +1499,7 @@
       <c r="S7" s="35"/>
       <c r="T7" s="36"/>
     </row>
-    <row r="8" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -1522,7 +1549,7 @@
       <c r="S8" s="35"/>
       <c r="T8" s="36"/>
     </row>
-    <row r="9" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -1572,7 +1599,7 @@
       <c r="S9" s="35"/>
       <c r="T9" s="36"/>
     </row>
-    <row r="10" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>9</v>
       </c>
@@ -1622,7 +1649,7 @@
       <c r="S10" s="35"/>
       <c r="T10" s="36"/>
     </row>
-    <row r="11" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>10</v>
       </c>
@@ -1672,7 +1699,7 @@
       <c r="S11" s="35"/>
       <c r="T11" s="36"/>
     </row>
-    <row r="12" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>11</v>
       </c>
@@ -1722,7 +1749,7 @@
       <c r="S12" s="35"/>
       <c r="T12" s="36"/>
     </row>
-    <row r="13" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>12</v>
       </c>
@@ -1772,7 +1799,7 @@
       <c r="S13" s="35"/>
       <c r="T13" s="36"/>
     </row>
-    <row r="14" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>13</v>
       </c>
@@ -1822,7 +1849,7 @@
       <c r="S14" s="35"/>
       <c r="T14" s="36"/>
     </row>
-    <row r="15" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>14</v>
       </c>
@@ -1872,7 +1899,7 @@
       <c r="S15" s="35"/>
       <c r="T15" s="36"/>
     </row>
-    <row r="16" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -1922,7 +1949,7 @@
       <c r="S16" s="35"/>
       <c r="T16" s="36"/>
     </row>
-    <row r="17" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>16</v>
       </c>
@@ -1972,7 +1999,7 @@
       <c r="S17" s="35"/>
       <c r="T17" s="36"/>
     </row>
-    <row r="18" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="22"/>
       <c r="B18" s="25"/>
       <c r="C18" s="23"/>
@@ -1994,7 +2021,7 @@
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
     </row>
-    <row r="19" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="22"/>
       <c r="B19" s="25"/>
       <c r="C19" s="23"/>
@@ -2016,7 +2043,7 @@
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
     </row>
-    <row r="20" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
       <c r="B20" s="25"/>
       <c r="C20" s="23"/>
@@ -2038,7 +2065,7 @@
       <c r="S20" s="35"/>
       <c r="T20" s="36"/>
     </row>
-    <row r="21" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="22"/>
       <c r="B21" s="25"/>
       <c r="C21" s="23"/>
@@ -2060,7 +2087,7 @@
       <c r="S21" s="35"/>
       <c r="T21" s="36"/>
     </row>
-    <row r="22" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="22"/>
       <c r="B22" s="25"/>
       <c r="C22" s="23"/>
@@ -2082,7 +2109,7 @@
       <c r="S22" s="35"/>
       <c r="T22" s="36"/>
     </row>
-    <row r="23" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="22"/>
       <c r="B23" s="25"/>
       <c r="C23" s="23"/>
@@ -2104,7 +2131,7 @@
       <c r="S23" s="35"/>
       <c r="T23" s="36"/>
     </row>
-    <row r="24" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="22"/>
       <c r="B24" s="25"/>
       <c r="C24" s="23"/>
@@ -2126,7 +2153,7 @@
       <c r="S24" s="35"/>
       <c r="T24" s="36"/>
     </row>
-    <row r="25" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="22"/>
       <c r="B25" s="25"/>
       <c r="C25" s="23"/>
@@ -2148,7 +2175,7 @@
       <c r="S25" s="35"/>
       <c r="T25" s="36"/>
     </row>
-    <row r="26" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="22"/>
       <c r="B26" s="25"/>
       <c r="C26" s="23"/>
@@ -2170,7 +2197,7 @@
       <c r="S26" s="35"/>
       <c r="T26" s="36"/>
     </row>
-    <row r="27" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="22"/>
       <c r="B27" s="25"/>
       <c r="C27" s="23"/>
@@ -2192,7 +2219,7 @@
       <c r="S27" s="35"/>
       <c r="T27" s="36"/>
     </row>
-    <row r="28" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="22"/>
       <c r="B28" s="25"/>
       <c r="C28" s="23"/>
@@ -2214,7 +2241,7 @@
       <c r="S28" s="35"/>
       <c r="T28" s="36"/>
     </row>
-    <row r="29" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="22"/>
       <c r="B29" s="25"/>
       <c r="C29" s="23"/>
@@ -2236,7 +2263,7 @@
       <c r="S29" s="35"/>
       <c r="T29" s="36"/>
     </row>
-    <row r="30" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="22"/>
       <c r="B30" s="25"/>
       <c r="C30" s="23"/>
@@ -2258,7 +2285,7 @@
       <c r="S30" s="35"/>
       <c r="T30" s="36"/>
     </row>
-    <row r="31" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="22"/>
       <c r="B31" s="25"/>
       <c r="C31" s="23"/>
@@ -2280,7 +2307,7 @@
       <c r="S31" s="35"/>
       <c r="T31" s="36"/>
     </row>
-    <row r="32" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="22"/>
       <c r="B32" s="25"/>
       <c r="C32" s="23"/>
@@ -2302,7 +2329,7 @@
       <c r="S32" s="35"/>
       <c r="T32" s="36"/>
     </row>
-    <row r="33" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="22"/>
       <c r="B33" s="25"/>
       <c r="C33" s="23"/>
@@ -2324,7 +2351,7 @@
       <c r="S33" s="35"/>
       <c r="T33" s="36"/>
     </row>
-    <row r="34" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="22"/>
       <c r="B34" s="25"/>
       <c r="C34" s="23"/>
@@ -2346,7 +2373,7 @@
       <c r="S34" s="35"/>
       <c r="T34" s="36"/>
     </row>
-    <row r="35" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="22"/>
       <c r="B35" s="25"/>
       <c r="C35" s="23"/>
@@ -2368,7 +2395,7 @@
       <c r="S35" s="35"/>
       <c r="T35" s="36"/>
     </row>
-    <row r="36" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="26"/>
       <c r="B36" s="27"/>
       <c r="C36" s="26"/>
@@ -2390,7 +2417,7 @@
       <c r="S36" s="27"/>
       <c r="T36" s="36"/>
     </row>
-    <row r="37" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="26"/>
       <c r="B37" s="27"/>
       <c r="C37" s="26"/>
@@ -2412,7 +2439,7 @@
       <c r="S37" s="27"/>
       <c r="T37" s="36"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="29"/>
       <c r="B38" s="30"/>
       <c r="C38" s="29"/>
@@ -2433,7 +2460,7 @@
       <c r="R38" s="29"/>
       <c r="S38" s="30"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="29"/>
       <c r="B39" s="30"/>
       <c r="C39" s="29"/>
@@ -2454,7 +2481,7 @@
       <c r="R39" s="29"/>
       <c r="S39" s="30"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="29"/>
       <c r="B40" s="30"/>
       <c r="C40" s="29"/>
@@ -2475,7 +2502,7 @@
       <c r="R40" s="29"/>
       <c r="S40" s="30"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="29"/>
       <c r="B41" s="30"/>
       <c r="C41" s="29"/>
@@ -2496,7 +2523,7 @@
       <c r="R41" s="29"/>
       <c r="S41" s="30"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="29"/>
       <c r="B42" s="30"/>
       <c r="C42" s="29"/>
@@ -2517,7 +2544,7 @@
       <c r="R42" s="29"/>
       <c r="S42" s="30"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="29"/>
       <c r="B43" s="30"/>
       <c r="C43" s="29"/>
@@ -2538,7 +2565,7 @@
       <c r="R43" s="29"/>
       <c r="S43" s="30"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="29"/>
       <c r="B44" s="30"/>
       <c r="C44" s="29"/>
@@ -2559,7 +2586,7 @@
       <c r="R44" s="29"/>
       <c r="S44" s="30"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="29"/>
       <c r="B45" s="30"/>
       <c r="C45" s="29"/>
@@ -2580,7 +2607,7 @@
       <c r="R45" s="29"/>
       <c r="S45" s="30"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="29"/>
       <c r="B46" s="30"/>
       <c r="C46" s="29"/>
@@ -2601,7 +2628,7 @@
       <c r="R46" s="29"/>
       <c r="S46" s="30"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="29"/>
       <c r="B47" s="30"/>
       <c r="C47" s="29"/>
@@ -2622,7 +2649,7 @@
       <c r="R47" s="29"/>
       <c r="S47" s="30"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="29"/>
       <c r="B48" s="30"/>
       <c r="C48" s="29"/>
@@ -2643,7 +2670,7 @@
       <c r="R48" s="29"/>
       <c r="S48" s="30"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="29"/>
       <c r="B49" s="30"/>
       <c r="C49" s="29"/>
@@ -2664,7 +2691,7 @@
       <c r="R49" s="29"/>
       <c r="S49" s="30"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
       <c r="B50" s="30"/>
       <c r="C50" s="29"/>
@@ -2685,7 +2712,7 @@
       <c r="R50" s="29"/>
       <c r="S50" s="30"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
       <c r="B51" s="30"/>
       <c r="C51" s="29"/>
@@ -2706,7 +2733,7 @@
       <c r="R51" s="29"/>
       <c r="S51" s="30"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
       <c r="B52" s="30"/>
       <c r="C52" s="29"/>
@@ -2727,7 +2754,7 @@
       <c r="R52" s="29"/>
       <c r="S52" s="30"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
       <c r="B53" s="30"/>
       <c r="C53" s="29"/>
@@ -2748,7 +2775,7 @@
       <c r="R53" s="29"/>
       <c r="S53" s="30"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
       <c r="B54" s="30"/>
       <c r="C54" s="29"/>
@@ -2769,7 +2796,7 @@
       <c r="R54" s="29"/>
       <c r="S54" s="30"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="29"/>
       <c r="B55" s="30"/>
       <c r="C55" s="29"/>
@@ -2790,7 +2817,7 @@
       <c r="R55" s="29"/>
       <c r="S55" s="30"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="29"/>
       <c r="B56" s="30"/>
       <c r="C56" s="29"/>
@@ -2811,7 +2838,7 @@
       <c r="R56" s="29"/>
       <c r="S56" s="30"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="29"/>
       <c r="B57" s="30"/>
       <c r="C57" s="29"/>
@@ -2832,7 +2859,7 @@
       <c r="R57" s="29"/>
       <c r="S57" s="30"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
       <c r="B58" s="30"/>
       <c r="C58" s="29"/>
@@ -2853,7 +2880,7 @@
       <c r="R58" s="29"/>
       <c r="S58" s="30"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
       <c r="B59" s="30"/>
       <c r="C59" s="29"/>
@@ -2874,7 +2901,7 @@
       <c r="R59" s="29"/>
       <c r="S59" s="30"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="29"/>
       <c r="B60" s="30"/>
       <c r="C60" s="29"/>
@@ -2895,7 +2922,7 @@
       <c r="R60" s="29"/>
       <c r="S60" s="30"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="29"/>
       <c r="B61" s="30"/>
       <c r="C61" s="29"/>
@@ -2916,7 +2943,7 @@
       <c r="R61" s="29"/>
       <c r="S61" s="30"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="29"/>
       <c r="B62" s="30"/>
       <c r="C62" s="29"/>
@@ -2937,7 +2964,7 @@
       <c r="R62" s="29"/>
       <c r="S62" s="30"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="29"/>
       <c r="B63" s="30"/>
       <c r="C63" s="29"/>
@@ -2958,7 +2985,7 @@
       <c r="R63" s="29"/>
       <c r="S63" s="30"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="29"/>
       <c r="B64" s="30"/>
       <c r="C64" s="29"/>
@@ -2979,7 +3006,7 @@
       <c r="R64" s="29"/>
       <c r="S64" s="30"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="29"/>
       <c r="B65" s="30"/>
       <c r="C65" s="29"/>
@@ -3000,7 +3027,7 @@
       <c r="R65" s="29"/>
       <c r="S65" s="30"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="29"/>
       <c r="B66" s="30"/>
       <c r="C66" s="29"/>
@@ -3021,7 +3048,7 @@
       <c r="R66" s="29"/>
       <c r="S66" s="30"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="29"/>
       <c r="B67" s="30"/>
       <c r="C67" s="29"/>
@@ -3042,7 +3069,7 @@
       <c r="R67" s="29"/>
       <c r="S67" s="30"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="29"/>
       <c r="B68" s="30"/>
       <c r="C68" s="29"/>
@@ -3063,7 +3090,7 @@
       <c r="R68" s="29"/>
       <c r="S68" s="30"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="29"/>
       <c r="B69" s="30"/>
       <c r="C69" s="29"/>
@@ -3084,7 +3111,7 @@
       <c r="R69" s="29"/>
       <c r="S69" s="30"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="29"/>
       <c r="B70" s="30"/>
       <c r="C70" s="29"/>
@@ -3105,7 +3132,7 @@
       <c r="R70" s="29"/>
       <c r="S70" s="30"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="29"/>
       <c r="B71" s="30"/>
       <c r="C71" s="29"/>
@@ -3126,7 +3153,7 @@
       <c r="R71" s="29"/>
       <c r="S71" s="30"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="29"/>
       <c r="B72" s="30"/>
       <c r="C72" s="29"/>
@@ -3147,7 +3174,7 @@
       <c r="R72" s="29"/>
       <c r="S72" s="30"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A73" s="29"/>
       <c r="B73" s="30"/>
       <c r="C73" s="29"/>
@@ -3168,7 +3195,7 @@
       <c r="R73" s="29"/>
       <c r="S73" s="30"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A74" s="29"/>
       <c r="B74" s="30"/>
       <c r="C74" s="29"/>
@@ -3189,7 +3216,7 @@
       <c r="R74" s="29"/>
       <c r="S74" s="30"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A75" s="29"/>
       <c r="B75" s="30"/>
       <c r="C75" s="29"/>
@@ -3210,7 +3237,7 @@
       <c r="R75" s="29"/>
       <c r="S75" s="30"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A76" s="29"/>
       <c r="B76" s="30"/>
       <c r="C76" s="29"/>
@@ -3231,7 +3258,7 @@
       <c r="R76" s="29"/>
       <c r="S76" s="30"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A77" s="29"/>
       <c r="B77" s="30"/>
       <c r="C77" s="29"/>
@@ -3252,7 +3279,7 @@
       <c r="R77" s="29"/>
       <c r="S77" s="30"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A78" s="29"/>
       <c r="B78" s="30"/>
       <c r="C78" s="29"/>
@@ -3273,7 +3300,7 @@
       <c r="R78" s="29"/>
       <c r="S78" s="30"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A79" s="29"/>
       <c r="B79" s="30"/>
       <c r="C79" s="29"/>
@@ -3294,7 +3321,7 @@
       <c r="R79" s="29"/>
       <c r="S79" s="30"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A80" s="29"/>
       <c r="B80" s="30"/>
       <c r="C80" s="29"/>
@@ -3315,7 +3342,7 @@
       <c r="R80" s="29"/>
       <c r="S80" s="30"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A81" s="29"/>
       <c r="B81" s="30"/>
       <c r="C81" s="29"/>
@@ -3336,7 +3363,7 @@
       <c r="R81" s="29"/>
       <c r="S81" s="30"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A82" s="29"/>
       <c r="B82" s="30"/>
       <c r="C82" s="29"/>
@@ -3357,7 +3384,7 @@
       <c r="R82" s="29"/>
       <c r="S82" s="30"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A83" s="29"/>
       <c r="B83" s="30"/>
       <c r="C83" s="29"/>
@@ -3378,7 +3405,7 @@
       <c r="R83" s="29"/>
       <c r="S83" s="30"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A84" s="29"/>
       <c r="B84" s="30"/>
       <c r="C84" s="29"/>
@@ -3399,7 +3426,7 @@
       <c r="R84" s="29"/>
       <c r="S84" s="30"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A85" s="29"/>
       <c r="B85" s="30"/>
       <c r="C85" s="29"/>
@@ -3420,7 +3447,7 @@
       <c r="R85" s="29"/>
       <c r="S85" s="30"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A86" s="29"/>
       <c r="B86" s="30"/>
       <c r="C86" s="29"/>
@@ -3441,7 +3468,7 @@
       <c r="R86" s="29"/>
       <c r="S86" s="30"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A87" s="29"/>
       <c r="B87" s="30"/>
       <c r="C87" s="29"/>
@@ -3462,7 +3489,7 @@
       <c r="R87" s="29"/>
       <c r="S87" s="30"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A88" s="29"/>
       <c r="B88" s="30"/>
       <c r="C88" s="29"/>
@@ -3483,7 +3510,7 @@
       <c r="R88" s="29"/>
       <c r="S88" s="30"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A89" s="29"/>
       <c r="B89" s="30"/>
       <c r="C89" s="29"/>
@@ -3504,7 +3531,7 @@
       <c r="R89" s="29"/>
       <c r="S89" s="30"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A90" s="29"/>
       <c r="B90" s="30"/>
       <c r="C90" s="29"/>
@@ -3525,7 +3552,7 @@
       <c r="R90" s="29"/>
       <c r="S90" s="30"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A91" s="29"/>
       <c r="B91" s="30"/>
       <c r="C91" s="29"/>
@@ -3546,7 +3573,7 @@
       <c r="R91" s="29"/>
       <c r="S91" s="30"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A92" s="29"/>
       <c r="B92" s="30"/>
       <c r="C92" s="29"/>
@@ -3567,7 +3594,7 @@
       <c r="R92" s="29"/>
       <c r="S92" s="30"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A93" s="29"/>
       <c r="B93" s="30"/>
       <c r="C93" s="29"/>
@@ -3588,7 +3615,7 @@
       <c r="R93" s="29"/>
       <c r="S93" s="30"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A94" s="29"/>
       <c r="B94" s="30"/>
       <c r="C94" s="29"/>
@@ -3609,7 +3636,7 @@
       <c r="R94" s="29"/>
       <c r="S94" s="30"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A95" s="29"/>
       <c r="B95" s="30"/>
       <c r="C95" s="29"/>
@@ -3630,7 +3657,7 @@
       <c r="R95" s="29"/>
       <c r="S95" s="30"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A96" s="29"/>
       <c r="B96" s="30"/>
       <c r="C96" s="29"/>
@@ -3651,7 +3678,7 @@
       <c r="R96" s="29"/>
       <c r="S96" s="30"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A97" s="29"/>
       <c r="B97" s="30"/>
       <c r="C97" s="29"/>
@@ -3672,7 +3699,7 @@
       <c r="R97" s="29"/>
       <c r="S97" s="30"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A98" s="29"/>
       <c r="B98" s="30"/>
       <c r="C98" s="29"/>
@@ -5598,15 +5625,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.25" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -5834,840 +5861,840 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="21" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="82.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.75" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="82.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
     <col min="12" max="12" width="9" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.75" customWidth="1"/>
-    <col min="257" max="257" width="3.875" customWidth="1"/>
-    <col min="258" max="258" width="10.125" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="257" max="257" width="3.83203125" customWidth="1"/>
+    <col min="258" max="258" width="10.1640625" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.25" customWidth="1"/>
+    <col min="260" max="260" width="12.1640625" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.125" customWidth="1"/>
-    <col min="263" max="263" width="82.25" customWidth="1"/>
-    <col min="264" max="264" width="25.75" customWidth="1"/>
-    <col min="265" max="265" width="13.625" customWidth="1"/>
-    <col min="266" max="266" width="9.875" customWidth="1"/>
-    <col min="267" max="267" width="10.125" customWidth="1"/>
+    <col min="262" max="262" width="9.1640625" customWidth="1"/>
+    <col min="263" max="263" width="82.1640625" customWidth="1"/>
+    <col min="264" max="264" width="25.6640625" customWidth="1"/>
+    <col min="265" max="265" width="13.6640625" customWidth="1"/>
+    <col min="266" max="266" width="9.83203125" customWidth="1"/>
+    <col min="267" max="267" width="10.1640625" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.75" customWidth="1"/>
-    <col min="513" max="513" width="3.875" customWidth="1"/>
-    <col min="514" max="514" width="10.125" customWidth="1"/>
+    <col min="269" max="269" width="17.6640625" customWidth="1"/>
+    <col min="513" max="513" width="3.83203125" customWidth="1"/>
+    <col min="514" max="514" width="10.1640625" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.25" customWidth="1"/>
+    <col min="516" max="516" width="12.1640625" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.125" customWidth="1"/>
-    <col min="519" max="519" width="82.25" customWidth="1"/>
-    <col min="520" max="520" width="25.75" customWidth="1"/>
-    <col min="521" max="521" width="13.625" customWidth="1"/>
-    <col min="522" max="522" width="9.875" customWidth="1"/>
-    <col min="523" max="523" width="10.125" customWidth="1"/>
+    <col min="518" max="518" width="9.1640625" customWidth="1"/>
+    <col min="519" max="519" width="82.1640625" customWidth="1"/>
+    <col min="520" max="520" width="25.6640625" customWidth="1"/>
+    <col min="521" max="521" width="13.6640625" customWidth="1"/>
+    <col min="522" max="522" width="9.83203125" customWidth="1"/>
+    <col min="523" max="523" width="10.1640625" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.75" customWidth="1"/>
-    <col min="769" max="769" width="3.875" customWidth="1"/>
-    <col min="770" max="770" width="10.125" customWidth="1"/>
+    <col min="525" max="525" width="17.6640625" customWidth="1"/>
+    <col min="769" max="769" width="3.83203125" customWidth="1"/>
+    <col min="770" max="770" width="10.1640625" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.25" customWidth="1"/>
+    <col min="772" max="772" width="12.1640625" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.125" customWidth="1"/>
-    <col min="775" max="775" width="82.25" customWidth="1"/>
-    <col min="776" max="776" width="25.75" customWidth="1"/>
-    <col min="777" max="777" width="13.625" customWidth="1"/>
-    <col min="778" max="778" width="9.875" customWidth="1"/>
-    <col min="779" max="779" width="10.125" customWidth="1"/>
+    <col min="774" max="774" width="9.1640625" customWidth="1"/>
+    <col min="775" max="775" width="82.1640625" customWidth="1"/>
+    <col min="776" max="776" width="25.6640625" customWidth="1"/>
+    <col min="777" max="777" width="13.6640625" customWidth="1"/>
+    <col min="778" max="778" width="9.83203125" customWidth="1"/>
+    <col min="779" max="779" width="10.1640625" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.75" customWidth="1"/>
-    <col min="1025" max="1025" width="3.875" customWidth="1"/>
-    <col min="1026" max="1026" width="10.125" customWidth="1"/>
+    <col min="781" max="781" width="17.6640625" customWidth="1"/>
+    <col min="1025" max="1025" width="3.83203125" customWidth="1"/>
+    <col min="1026" max="1026" width="10.1640625" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.25" customWidth="1"/>
+    <col min="1028" max="1028" width="12.1640625" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.125" customWidth="1"/>
-    <col min="1031" max="1031" width="82.25" customWidth="1"/>
-    <col min="1032" max="1032" width="25.75" customWidth="1"/>
-    <col min="1033" max="1033" width="13.625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.875" customWidth="1"/>
-    <col min="1035" max="1035" width="10.125" customWidth="1"/>
+    <col min="1030" max="1030" width="9.1640625" customWidth="1"/>
+    <col min="1031" max="1031" width="82.1640625" customWidth="1"/>
+    <col min="1032" max="1032" width="25.6640625" customWidth="1"/>
+    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.83203125" customWidth="1"/>
+    <col min="1035" max="1035" width="10.1640625" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.75" customWidth="1"/>
-    <col min="1281" max="1281" width="3.875" customWidth="1"/>
-    <col min="1282" max="1282" width="10.125" customWidth="1"/>
+    <col min="1037" max="1037" width="17.6640625" customWidth="1"/>
+    <col min="1281" max="1281" width="3.83203125" customWidth="1"/>
+    <col min="1282" max="1282" width="10.1640625" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.25" customWidth="1"/>
+    <col min="1284" max="1284" width="12.1640625" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.125" customWidth="1"/>
-    <col min="1287" max="1287" width="82.25" customWidth="1"/>
-    <col min="1288" max="1288" width="25.75" customWidth="1"/>
-    <col min="1289" max="1289" width="13.625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.875" customWidth="1"/>
-    <col min="1291" max="1291" width="10.125" customWidth="1"/>
+    <col min="1286" max="1286" width="9.1640625" customWidth="1"/>
+    <col min="1287" max="1287" width="82.1640625" customWidth="1"/>
+    <col min="1288" max="1288" width="25.6640625" customWidth="1"/>
+    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.83203125" customWidth="1"/>
+    <col min="1291" max="1291" width="10.1640625" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.75" customWidth="1"/>
-    <col min="1537" max="1537" width="3.875" customWidth="1"/>
-    <col min="1538" max="1538" width="10.125" customWidth="1"/>
+    <col min="1293" max="1293" width="17.6640625" customWidth="1"/>
+    <col min="1537" max="1537" width="3.83203125" customWidth="1"/>
+    <col min="1538" max="1538" width="10.1640625" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.25" customWidth="1"/>
+    <col min="1540" max="1540" width="12.1640625" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.125" customWidth="1"/>
-    <col min="1543" max="1543" width="82.25" customWidth="1"/>
-    <col min="1544" max="1544" width="25.75" customWidth="1"/>
-    <col min="1545" max="1545" width="13.625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.875" customWidth="1"/>
-    <col min="1547" max="1547" width="10.125" customWidth="1"/>
+    <col min="1542" max="1542" width="9.1640625" customWidth="1"/>
+    <col min="1543" max="1543" width="82.1640625" customWidth="1"/>
+    <col min="1544" max="1544" width="25.6640625" customWidth="1"/>
+    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.83203125" customWidth="1"/>
+    <col min="1547" max="1547" width="10.1640625" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.75" customWidth="1"/>
-    <col min="1793" max="1793" width="3.875" customWidth="1"/>
-    <col min="1794" max="1794" width="10.125" customWidth="1"/>
+    <col min="1549" max="1549" width="17.6640625" customWidth="1"/>
+    <col min="1793" max="1793" width="3.83203125" customWidth="1"/>
+    <col min="1794" max="1794" width="10.1640625" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.25" customWidth="1"/>
+    <col min="1796" max="1796" width="12.1640625" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.125" customWidth="1"/>
-    <col min="1799" max="1799" width="82.25" customWidth="1"/>
-    <col min="1800" max="1800" width="25.75" customWidth="1"/>
-    <col min="1801" max="1801" width="13.625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.875" customWidth="1"/>
-    <col min="1803" max="1803" width="10.125" customWidth="1"/>
+    <col min="1798" max="1798" width="9.1640625" customWidth="1"/>
+    <col min="1799" max="1799" width="82.1640625" customWidth="1"/>
+    <col min="1800" max="1800" width="25.6640625" customWidth="1"/>
+    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.83203125" customWidth="1"/>
+    <col min="1803" max="1803" width="10.1640625" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.75" customWidth="1"/>
-    <col min="2049" max="2049" width="3.875" customWidth="1"/>
-    <col min="2050" max="2050" width="10.125" customWidth="1"/>
+    <col min="1805" max="1805" width="17.6640625" customWidth="1"/>
+    <col min="2049" max="2049" width="3.83203125" customWidth="1"/>
+    <col min="2050" max="2050" width="10.1640625" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.25" customWidth="1"/>
+    <col min="2052" max="2052" width="12.1640625" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.125" customWidth="1"/>
-    <col min="2055" max="2055" width="82.25" customWidth="1"/>
-    <col min="2056" max="2056" width="25.75" customWidth="1"/>
-    <col min="2057" max="2057" width="13.625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.875" customWidth="1"/>
-    <col min="2059" max="2059" width="10.125" customWidth="1"/>
+    <col min="2054" max="2054" width="9.1640625" customWidth="1"/>
+    <col min="2055" max="2055" width="82.1640625" customWidth="1"/>
+    <col min="2056" max="2056" width="25.6640625" customWidth="1"/>
+    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.83203125" customWidth="1"/>
+    <col min="2059" max="2059" width="10.1640625" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.75" customWidth="1"/>
-    <col min="2305" max="2305" width="3.875" customWidth="1"/>
-    <col min="2306" max="2306" width="10.125" customWidth="1"/>
+    <col min="2061" max="2061" width="17.6640625" customWidth="1"/>
+    <col min="2305" max="2305" width="3.83203125" customWidth="1"/>
+    <col min="2306" max="2306" width="10.1640625" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.25" customWidth="1"/>
+    <col min="2308" max="2308" width="12.1640625" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.125" customWidth="1"/>
-    <col min="2311" max="2311" width="82.25" customWidth="1"/>
-    <col min="2312" max="2312" width="25.75" customWidth="1"/>
-    <col min="2313" max="2313" width="13.625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.875" customWidth="1"/>
-    <col min="2315" max="2315" width="10.125" customWidth="1"/>
+    <col min="2310" max="2310" width="9.1640625" customWidth="1"/>
+    <col min="2311" max="2311" width="82.1640625" customWidth="1"/>
+    <col min="2312" max="2312" width="25.6640625" customWidth="1"/>
+    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.83203125" customWidth="1"/>
+    <col min="2315" max="2315" width="10.1640625" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.75" customWidth="1"/>
-    <col min="2561" max="2561" width="3.875" customWidth="1"/>
-    <col min="2562" max="2562" width="10.125" customWidth="1"/>
+    <col min="2317" max="2317" width="17.6640625" customWidth="1"/>
+    <col min="2561" max="2561" width="3.83203125" customWidth="1"/>
+    <col min="2562" max="2562" width="10.1640625" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.25" customWidth="1"/>
+    <col min="2564" max="2564" width="12.1640625" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.125" customWidth="1"/>
-    <col min="2567" max="2567" width="82.25" customWidth="1"/>
-    <col min="2568" max="2568" width="25.75" customWidth="1"/>
-    <col min="2569" max="2569" width="13.625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.875" customWidth="1"/>
-    <col min="2571" max="2571" width="10.125" customWidth="1"/>
+    <col min="2566" max="2566" width="9.1640625" customWidth="1"/>
+    <col min="2567" max="2567" width="82.1640625" customWidth="1"/>
+    <col min="2568" max="2568" width="25.6640625" customWidth="1"/>
+    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.83203125" customWidth="1"/>
+    <col min="2571" max="2571" width="10.1640625" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.75" customWidth="1"/>
-    <col min="2817" max="2817" width="3.875" customWidth="1"/>
-    <col min="2818" max="2818" width="10.125" customWidth="1"/>
+    <col min="2573" max="2573" width="17.6640625" customWidth="1"/>
+    <col min="2817" max="2817" width="3.83203125" customWidth="1"/>
+    <col min="2818" max="2818" width="10.1640625" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.25" customWidth="1"/>
+    <col min="2820" max="2820" width="12.1640625" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.125" customWidth="1"/>
-    <col min="2823" max="2823" width="82.25" customWidth="1"/>
-    <col min="2824" max="2824" width="25.75" customWidth="1"/>
-    <col min="2825" max="2825" width="13.625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.875" customWidth="1"/>
-    <col min="2827" max="2827" width="10.125" customWidth="1"/>
+    <col min="2822" max="2822" width="9.1640625" customWidth="1"/>
+    <col min="2823" max="2823" width="82.1640625" customWidth="1"/>
+    <col min="2824" max="2824" width="25.6640625" customWidth="1"/>
+    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.83203125" customWidth="1"/>
+    <col min="2827" max="2827" width="10.1640625" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.75" customWidth="1"/>
-    <col min="3073" max="3073" width="3.875" customWidth="1"/>
-    <col min="3074" max="3074" width="10.125" customWidth="1"/>
+    <col min="2829" max="2829" width="17.6640625" customWidth="1"/>
+    <col min="3073" max="3073" width="3.83203125" customWidth="1"/>
+    <col min="3074" max="3074" width="10.1640625" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.25" customWidth="1"/>
+    <col min="3076" max="3076" width="12.1640625" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.125" customWidth="1"/>
-    <col min="3079" max="3079" width="82.25" customWidth="1"/>
-    <col min="3080" max="3080" width="25.75" customWidth="1"/>
-    <col min="3081" max="3081" width="13.625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.875" customWidth="1"/>
-    <col min="3083" max="3083" width="10.125" customWidth="1"/>
+    <col min="3078" max="3078" width="9.1640625" customWidth="1"/>
+    <col min="3079" max="3079" width="82.1640625" customWidth="1"/>
+    <col min="3080" max="3080" width="25.6640625" customWidth="1"/>
+    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.83203125" customWidth="1"/>
+    <col min="3083" max="3083" width="10.1640625" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.75" customWidth="1"/>
-    <col min="3329" max="3329" width="3.875" customWidth="1"/>
-    <col min="3330" max="3330" width="10.125" customWidth="1"/>
+    <col min="3085" max="3085" width="17.6640625" customWidth="1"/>
+    <col min="3329" max="3329" width="3.83203125" customWidth="1"/>
+    <col min="3330" max="3330" width="10.1640625" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.25" customWidth="1"/>
+    <col min="3332" max="3332" width="12.1640625" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.125" customWidth="1"/>
-    <col min="3335" max="3335" width="82.25" customWidth="1"/>
-    <col min="3336" max="3336" width="25.75" customWidth="1"/>
-    <col min="3337" max="3337" width="13.625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.875" customWidth="1"/>
-    <col min="3339" max="3339" width="10.125" customWidth="1"/>
+    <col min="3334" max="3334" width="9.1640625" customWidth="1"/>
+    <col min="3335" max="3335" width="82.1640625" customWidth="1"/>
+    <col min="3336" max="3336" width="25.6640625" customWidth="1"/>
+    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.83203125" customWidth="1"/>
+    <col min="3339" max="3339" width="10.1640625" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.75" customWidth="1"/>
-    <col min="3585" max="3585" width="3.875" customWidth="1"/>
-    <col min="3586" max="3586" width="10.125" customWidth="1"/>
+    <col min="3341" max="3341" width="17.6640625" customWidth="1"/>
+    <col min="3585" max="3585" width="3.83203125" customWidth="1"/>
+    <col min="3586" max="3586" width="10.1640625" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.25" customWidth="1"/>
+    <col min="3588" max="3588" width="12.1640625" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.125" customWidth="1"/>
-    <col min="3591" max="3591" width="82.25" customWidth="1"/>
-    <col min="3592" max="3592" width="25.75" customWidth="1"/>
-    <col min="3593" max="3593" width="13.625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.875" customWidth="1"/>
-    <col min="3595" max="3595" width="10.125" customWidth="1"/>
+    <col min="3590" max="3590" width="9.1640625" customWidth="1"/>
+    <col min="3591" max="3591" width="82.1640625" customWidth="1"/>
+    <col min="3592" max="3592" width="25.6640625" customWidth="1"/>
+    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.83203125" customWidth="1"/>
+    <col min="3595" max="3595" width="10.1640625" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.75" customWidth="1"/>
-    <col min="3841" max="3841" width="3.875" customWidth="1"/>
-    <col min="3842" max="3842" width="10.125" customWidth="1"/>
+    <col min="3597" max="3597" width="17.6640625" customWidth="1"/>
+    <col min="3841" max="3841" width="3.83203125" customWidth="1"/>
+    <col min="3842" max="3842" width="10.1640625" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.25" customWidth="1"/>
+    <col min="3844" max="3844" width="12.1640625" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.125" customWidth="1"/>
-    <col min="3847" max="3847" width="82.25" customWidth="1"/>
-    <col min="3848" max="3848" width="25.75" customWidth="1"/>
-    <col min="3849" max="3849" width="13.625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.875" customWidth="1"/>
-    <col min="3851" max="3851" width="10.125" customWidth="1"/>
+    <col min="3846" max="3846" width="9.1640625" customWidth="1"/>
+    <col min="3847" max="3847" width="82.1640625" customWidth="1"/>
+    <col min="3848" max="3848" width="25.6640625" customWidth="1"/>
+    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.83203125" customWidth="1"/>
+    <col min="3851" max="3851" width="10.1640625" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.75" customWidth="1"/>
-    <col min="4097" max="4097" width="3.875" customWidth="1"/>
-    <col min="4098" max="4098" width="10.125" customWidth="1"/>
+    <col min="3853" max="3853" width="17.6640625" customWidth="1"/>
+    <col min="4097" max="4097" width="3.83203125" customWidth="1"/>
+    <col min="4098" max="4098" width="10.1640625" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.25" customWidth="1"/>
+    <col min="4100" max="4100" width="12.1640625" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.125" customWidth="1"/>
-    <col min="4103" max="4103" width="82.25" customWidth="1"/>
-    <col min="4104" max="4104" width="25.75" customWidth="1"/>
-    <col min="4105" max="4105" width="13.625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.875" customWidth="1"/>
-    <col min="4107" max="4107" width="10.125" customWidth="1"/>
+    <col min="4102" max="4102" width="9.1640625" customWidth="1"/>
+    <col min="4103" max="4103" width="82.1640625" customWidth="1"/>
+    <col min="4104" max="4104" width="25.6640625" customWidth="1"/>
+    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.83203125" customWidth="1"/>
+    <col min="4107" max="4107" width="10.1640625" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.75" customWidth="1"/>
-    <col min="4353" max="4353" width="3.875" customWidth="1"/>
-    <col min="4354" max="4354" width="10.125" customWidth="1"/>
+    <col min="4109" max="4109" width="17.6640625" customWidth="1"/>
+    <col min="4353" max="4353" width="3.83203125" customWidth="1"/>
+    <col min="4354" max="4354" width="10.1640625" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.25" customWidth="1"/>
+    <col min="4356" max="4356" width="12.1640625" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.125" customWidth="1"/>
-    <col min="4359" max="4359" width="82.25" customWidth="1"/>
-    <col min="4360" max="4360" width="25.75" customWidth="1"/>
-    <col min="4361" max="4361" width="13.625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.875" customWidth="1"/>
-    <col min="4363" max="4363" width="10.125" customWidth="1"/>
+    <col min="4358" max="4358" width="9.1640625" customWidth="1"/>
+    <col min="4359" max="4359" width="82.1640625" customWidth="1"/>
+    <col min="4360" max="4360" width="25.6640625" customWidth="1"/>
+    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.83203125" customWidth="1"/>
+    <col min="4363" max="4363" width="10.1640625" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.75" customWidth="1"/>
-    <col min="4609" max="4609" width="3.875" customWidth="1"/>
-    <col min="4610" max="4610" width="10.125" customWidth="1"/>
+    <col min="4365" max="4365" width="17.6640625" customWidth="1"/>
+    <col min="4609" max="4609" width="3.83203125" customWidth="1"/>
+    <col min="4610" max="4610" width="10.1640625" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.25" customWidth="1"/>
+    <col min="4612" max="4612" width="12.1640625" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.125" customWidth="1"/>
-    <col min="4615" max="4615" width="82.25" customWidth="1"/>
-    <col min="4616" max="4616" width="25.75" customWidth="1"/>
-    <col min="4617" max="4617" width="13.625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.875" customWidth="1"/>
-    <col min="4619" max="4619" width="10.125" customWidth="1"/>
+    <col min="4614" max="4614" width="9.1640625" customWidth="1"/>
+    <col min="4615" max="4615" width="82.1640625" customWidth="1"/>
+    <col min="4616" max="4616" width="25.6640625" customWidth="1"/>
+    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.83203125" customWidth="1"/>
+    <col min="4619" max="4619" width="10.1640625" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.75" customWidth="1"/>
-    <col min="4865" max="4865" width="3.875" customWidth="1"/>
-    <col min="4866" max="4866" width="10.125" customWidth="1"/>
+    <col min="4621" max="4621" width="17.6640625" customWidth="1"/>
+    <col min="4865" max="4865" width="3.83203125" customWidth="1"/>
+    <col min="4866" max="4866" width="10.1640625" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.25" customWidth="1"/>
+    <col min="4868" max="4868" width="12.1640625" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.125" customWidth="1"/>
-    <col min="4871" max="4871" width="82.25" customWidth="1"/>
-    <col min="4872" max="4872" width="25.75" customWidth="1"/>
-    <col min="4873" max="4873" width="13.625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.875" customWidth="1"/>
-    <col min="4875" max="4875" width="10.125" customWidth="1"/>
+    <col min="4870" max="4870" width="9.1640625" customWidth="1"/>
+    <col min="4871" max="4871" width="82.1640625" customWidth="1"/>
+    <col min="4872" max="4872" width="25.6640625" customWidth="1"/>
+    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.83203125" customWidth="1"/>
+    <col min="4875" max="4875" width="10.1640625" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.75" customWidth="1"/>
-    <col min="5121" max="5121" width="3.875" customWidth="1"/>
-    <col min="5122" max="5122" width="10.125" customWidth="1"/>
+    <col min="4877" max="4877" width="17.6640625" customWidth="1"/>
+    <col min="5121" max="5121" width="3.83203125" customWidth="1"/>
+    <col min="5122" max="5122" width="10.1640625" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.25" customWidth="1"/>
+    <col min="5124" max="5124" width="12.1640625" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.125" customWidth="1"/>
-    <col min="5127" max="5127" width="82.25" customWidth="1"/>
-    <col min="5128" max="5128" width="25.75" customWidth="1"/>
-    <col min="5129" max="5129" width="13.625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.875" customWidth="1"/>
-    <col min="5131" max="5131" width="10.125" customWidth="1"/>
+    <col min="5126" max="5126" width="9.1640625" customWidth="1"/>
+    <col min="5127" max="5127" width="82.1640625" customWidth="1"/>
+    <col min="5128" max="5128" width="25.6640625" customWidth="1"/>
+    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.83203125" customWidth="1"/>
+    <col min="5131" max="5131" width="10.1640625" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.75" customWidth="1"/>
-    <col min="5377" max="5377" width="3.875" customWidth="1"/>
-    <col min="5378" max="5378" width="10.125" customWidth="1"/>
+    <col min="5133" max="5133" width="17.6640625" customWidth="1"/>
+    <col min="5377" max="5377" width="3.83203125" customWidth="1"/>
+    <col min="5378" max="5378" width="10.1640625" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.25" customWidth="1"/>
+    <col min="5380" max="5380" width="12.1640625" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.125" customWidth="1"/>
-    <col min="5383" max="5383" width="82.25" customWidth="1"/>
-    <col min="5384" max="5384" width="25.75" customWidth="1"/>
-    <col min="5385" max="5385" width="13.625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.875" customWidth="1"/>
-    <col min="5387" max="5387" width="10.125" customWidth="1"/>
+    <col min="5382" max="5382" width="9.1640625" customWidth="1"/>
+    <col min="5383" max="5383" width="82.1640625" customWidth="1"/>
+    <col min="5384" max="5384" width="25.6640625" customWidth="1"/>
+    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.83203125" customWidth="1"/>
+    <col min="5387" max="5387" width="10.1640625" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.75" customWidth="1"/>
-    <col min="5633" max="5633" width="3.875" customWidth="1"/>
-    <col min="5634" max="5634" width="10.125" customWidth="1"/>
+    <col min="5389" max="5389" width="17.6640625" customWidth="1"/>
+    <col min="5633" max="5633" width="3.83203125" customWidth="1"/>
+    <col min="5634" max="5634" width="10.1640625" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.25" customWidth="1"/>
+    <col min="5636" max="5636" width="12.1640625" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.125" customWidth="1"/>
-    <col min="5639" max="5639" width="82.25" customWidth="1"/>
-    <col min="5640" max="5640" width="25.75" customWidth="1"/>
-    <col min="5641" max="5641" width="13.625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.875" customWidth="1"/>
-    <col min="5643" max="5643" width="10.125" customWidth="1"/>
+    <col min="5638" max="5638" width="9.1640625" customWidth="1"/>
+    <col min="5639" max="5639" width="82.1640625" customWidth="1"/>
+    <col min="5640" max="5640" width="25.6640625" customWidth="1"/>
+    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.83203125" customWidth="1"/>
+    <col min="5643" max="5643" width="10.1640625" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.75" customWidth="1"/>
-    <col min="5889" max="5889" width="3.875" customWidth="1"/>
-    <col min="5890" max="5890" width="10.125" customWidth="1"/>
+    <col min="5645" max="5645" width="17.6640625" customWidth="1"/>
+    <col min="5889" max="5889" width="3.83203125" customWidth="1"/>
+    <col min="5890" max="5890" width="10.1640625" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.25" customWidth="1"/>
+    <col min="5892" max="5892" width="12.1640625" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.125" customWidth="1"/>
-    <col min="5895" max="5895" width="82.25" customWidth="1"/>
-    <col min="5896" max="5896" width="25.75" customWidth="1"/>
-    <col min="5897" max="5897" width="13.625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.875" customWidth="1"/>
-    <col min="5899" max="5899" width="10.125" customWidth="1"/>
+    <col min="5894" max="5894" width="9.1640625" customWidth="1"/>
+    <col min="5895" max="5895" width="82.1640625" customWidth="1"/>
+    <col min="5896" max="5896" width="25.6640625" customWidth="1"/>
+    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.83203125" customWidth="1"/>
+    <col min="5899" max="5899" width="10.1640625" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.75" customWidth="1"/>
-    <col min="6145" max="6145" width="3.875" customWidth="1"/>
-    <col min="6146" max="6146" width="10.125" customWidth="1"/>
+    <col min="5901" max="5901" width="17.6640625" customWidth="1"/>
+    <col min="6145" max="6145" width="3.83203125" customWidth="1"/>
+    <col min="6146" max="6146" width="10.1640625" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.25" customWidth="1"/>
+    <col min="6148" max="6148" width="12.1640625" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.125" customWidth="1"/>
-    <col min="6151" max="6151" width="82.25" customWidth="1"/>
-    <col min="6152" max="6152" width="25.75" customWidth="1"/>
-    <col min="6153" max="6153" width="13.625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.875" customWidth="1"/>
-    <col min="6155" max="6155" width="10.125" customWidth="1"/>
+    <col min="6150" max="6150" width="9.1640625" customWidth="1"/>
+    <col min="6151" max="6151" width="82.1640625" customWidth="1"/>
+    <col min="6152" max="6152" width="25.6640625" customWidth="1"/>
+    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.83203125" customWidth="1"/>
+    <col min="6155" max="6155" width="10.1640625" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.75" customWidth="1"/>
-    <col min="6401" max="6401" width="3.875" customWidth="1"/>
-    <col min="6402" max="6402" width="10.125" customWidth="1"/>
+    <col min="6157" max="6157" width="17.6640625" customWidth="1"/>
+    <col min="6401" max="6401" width="3.83203125" customWidth="1"/>
+    <col min="6402" max="6402" width="10.1640625" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.25" customWidth="1"/>
+    <col min="6404" max="6404" width="12.1640625" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.125" customWidth="1"/>
-    <col min="6407" max="6407" width="82.25" customWidth="1"/>
-    <col min="6408" max="6408" width="25.75" customWidth="1"/>
-    <col min="6409" max="6409" width="13.625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.875" customWidth="1"/>
-    <col min="6411" max="6411" width="10.125" customWidth="1"/>
+    <col min="6406" max="6406" width="9.1640625" customWidth="1"/>
+    <col min="6407" max="6407" width="82.1640625" customWidth="1"/>
+    <col min="6408" max="6408" width="25.6640625" customWidth="1"/>
+    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.83203125" customWidth="1"/>
+    <col min="6411" max="6411" width="10.1640625" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.75" customWidth="1"/>
-    <col min="6657" max="6657" width="3.875" customWidth="1"/>
-    <col min="6658" max="6658" width="10.125" customWidth="1"/>
+    <col min="6413" max="6413" width="17.6640625" customWidth="1"/>
+    <col min="6657" max="6657" width="3.83203125" customWidth="1"/>
+    <col min="6658" max="6658" width="10.1640625" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.25" customWidth="1"/>
+    <col min="6660" max="6660" width="12.1640625" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.125" customWidth="1"/>
-    <col min="6663" max="6663" width="82.25" customWidth="1"/>
-    <col min="6664" max="6664" width="25.75" customWidth="1"/>
-    <col min="6665" max="6665" width="13.625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.875" customWidth="1"/>
-    <col min="6667" max="6667" width="10.125" customWidth="1"/>
+    <col min="6662" max="6662" width="9.1640625" customWidth="1"/>
+    <col min="6663" max="6663" width="82.1640625" customWidth="1"/>
+    <col min="6664" max="6664" width="25.6640625" customWidth="1"/>
+    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.83203125" customWidth="1"/>
+    <col min="6667" max="6667" width="10.1640625" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.75" customWidth="1"/>
-    <col min="6913" max="6913" width="3.875" customWidth="1"/>
-    <col min="6914" max="6914" width="10.125" customWidth="1"/>
+    <col min="6669" max="6669" width="17.6640625" customWidth="1"/>
+    <col min="6913" max="6913" width="3.83203125" customWidth="1"/>
+    <col min="6914" max="6914" width="10.1640625" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.25" customWidth="1"/>
+    <col min="6916" max="6916" width="12.1640625" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.125" customWidth="1"/>
-    <col min="6919" max="6919" width="82.25" customWidth="1"/>
-    <col min="6920" max="6920" width="25.75" customWidth="1"/>
-    <col min="6921" max="6921" width="13.625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.875" customWidth="1"/>
-    <col min="6923" max="6923" width="10.125" customWidth="1"/>
+    <col min="6918" max="6918" width="9.1640625" customWidth="1"/>
+    <col min="6919" max="6919" width="82.1640625" customWidth="1"/>
+    <col min="6920" max="6920" width="25.6640625" customWidth="1"/>
+    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.83203125" customWidth="1"/>
+    <col min="6923" max="6923" width="10.1640625" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.75" customWidth="1"/>
-    <col min="7169" max="7169" width="3.875" customWidth="1"/>
-    <col min="7170" max="7170" width="10.125" customWidth="1"/>
+    <col min="6925" max="6925" width="17.6640625" customWidth="1"/>
+    <col min="7169" max="7169" width="3.83203125" customWidth="1"/>
+    <col min="7170" max="7170" width="10.1640625" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.25" customWidth="1"/>
+    <col min="7172" max="7172" width="12.1640625" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.125" customWidth="1"/>
-    <col min="7175" max="7175" width="82.25" customWidth="1"/>
-    <col min="7176" max="7176" width="25.75" customWidth="1"/>
-    <col min="7177" max="7177" width="13.625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.875" customWidth="1"/>
-    <col min="7179" max="7179" width="10.125" customWidth="1"/>
+    <col min="7174" max="7174" width="9.1640625" customWidth="1"/>
+    <col min="7175" max="7175" width="82.1640625" customWidth="1"/>
+    <col min="7176" max="7176" width="25.6640625" customWidth="1"/>
+    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.83203125" customWidth="1"/>
+    <col min="7179" max="7179" width="10.1640625" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.75" customWidth="1"/>
-    <col min="7425" max="7425" width="3.875" customWidth="1"/>
-    <col min="7426" max="7426" width="10.125" customWidth="1"/>
+    <col min="7181" max="7181" width="17.6640625" customWidth="1"/>
+    <col min="7425" max="7425" width="3.83203125" customWidth="1"/>
+    <col min="7426" max="7426" width="10.1640625" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.25" customWidth="1"/>
+    <col min="7428" max="7428" width="12.1640625" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.125" customWidth="1"/>
-    <col min="7431" max="7431" width="82.25" customWidth="1"/>
-    <col min="7432" max="7432" width="25.75" customWidth="1"/>
-    <col min="7433" max="7433" width="13.625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.875" customWidth="1"/>
-    <col min="7435" max="7435" width="10.125" customWidth="1"/>
+    <col min="7430" max="7430" width="9.1640625" customWidth="1"/>
+    <col min="7431" max="7431" width="82.1640625" customWidth="1"/>
+    <col min="7432" max="7432" width="25.6640625" customWidth="1"/>
+    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.83203125" customWidth="1"/>
+    <col min="7435" max="7435" width="10.1640625" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.75" customWidth="1"/>
-    <col min="7681" max="7681" width="3.875" customWidth="1"/>
-    <col min="7682" max="7682" width="10.125" customWidth="1"/>
+    <col min="7437" max="7437" width="17.6640625" customWidth="1"/>
+    <col min="7681" max="7681" width="3.83203125" customWidth="1"/>
+    <col min="7682" max="7682" width="10.1640625" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.25" customWidth="1"/>
+    <col min="7684" max="7684" width="12.1640625" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.125" customWidth="1"/>
-    <col min="7687" max="7687" width="82.25" customWidth="1"/>
-    <col min="7688" max="7688" width="25.75" customWidth="1"/>
-    <col min="7689" max="7689" width="13.625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.875" customWidth="1"/>
-    <col min="7691" max="7691" width="10.125" customWidth="1"/>
+    <col min="7686" max="7686" width="9.1640625" customWidth="1"/>
+    <col min="7687" max="7687" width="82.1640625" customWidth="1"/>
+    <col min="7688" max="7688" width="25.6640625" customWidth="1"/>
+    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.83203125" customWidth="1"/>
+    <col min="7691" max="7691" width="10.1640625" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.75" customWidth="1"/>
-    <col min="7937" max="7937" width="3.875" customWidth="1"/>
-    <col min="7938" max="7938" width="10.125" customWidth="1"/>
+    <col min="7693" max="7693" width="17.6640625" customWidth="1"/>
+    <col min="7937" max="7937" width="3.83203125" customWidth="1"/>
+    <col min="7938" max="7938" width="10.1640625" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.25" customWidth="1"/>
+    <col min="7940" max="7940" width="12.1640625" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.125" customWidth="1"/>
-    <col min="7943" max="7943" width="82.25" customWidth="1"/>
-    <col min="7944" max="7944" width="25.75" customWidth="1"/>
-    <col min="7945" max="7945" width="13.625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.875" customWidth="1"/>
-    <col min="7947" max="7947" width="10.125" customWidth="1"/>
+    <col min="7942" max="7942" width="9.1640625" customWidth="1"/>
+    <col min="7943" max="7943" width="82.1640625" customWidth="1"/>
+    <col min="7944" max="7944" width="25.6640625" customWidth="1"/>
+    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.83203125" customWidth="1"/>
+    <col min="7947" max="7947" width="10.1640625" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.75" customWidth="1"/>
-    <col min="8193" max="8193" width="3.875" customWidth="1"/>
-    <col min="8194" max="8194" width="10.125" customWidth="1"/>
+    <col min="7949" max="7949" width="17.6640625" customWidth="1"/>
+    <col min="8193" max="8193" width="3.83203125" customWidth="1"/>
+    <col min="8194" max="8194" width="10.1640625" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.25" customWidth="1"/>
+    <col min="8196" max="8196" width="12.1640625" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.125" customWidth="1"/>
-    <col min="8199" max="8199" width="82.25" customWidth="1"/>
-    <col min="8200" max="8200" width="25.75" customWidth="1"/>
-    <col min="8201" max="8201" width="13.625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.875" customWidth="1"/>
-    <col min="8203" max="8203" width="10.125" customWidth="1"/>
+    <col min="8198" max="8198" width="9.1640625" customWidth="1"/>
+    <col min="8199" max="8199" width="82.1640625" customWidth="1"/>
+    <col min="8200" max="8200" width="25.6640625" customWidth="1"/>
+    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.83203125" customWidth="1"/>
+    <col min="8203" max="8203" width="10.1640625" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.75" customWidth="1"/>
-    <col min="8449" max="8449" width="3.875" customWidth="1"/>
-    <col min="8450" max="8450" width="10.125" customWidth="1"/>
+    <col min="8205" max="8205" width="17.6640625" customWidth="1"/>
+    <col min="8449" max="8449" width="3.83203125" customWidth="1"/>
+    <col min="8450" max="8450" width="10.1640625" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.25" customWidth="1"/>
+    <col min="8452" max="8452" width="12.1640625" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.125" customWidth="1"/>
-    <col min="8455" max="8455" width="82.25" customWidth="1"/>
-    <col min="8456" max="8456" width="25.75" customWidth="1"/>
-    <col min="8457" max="8457" width="13.625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.875" customWidth="1"/>
-    <col min="8459" max="8459" width="10.125" customWidth="1"/>
+    <col min="8454" max="8454" width="9.1640625" customWidth="1"/>
+    <col min="8455" max="8455" width="82.1640625" customWidth="1"/>
+    <col min="8456" max="8456" width="25.6640625" customWidth="1"/>
+    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.83203125" customWidth="1"/>
+    <col min="8459" max="8459" width="10.1640625" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.75" customWidth="1"/>
-    <col min="8705" max="8705" width="3.875" customWidth="1"/>
-    <col min="8706" max="8706" width="10.125" customWidth="1"/>
+    <col min="8461" max="8461" width="17.6640625" customWidth="1"/>
+    <col min="8705" max="8705" width="3.83203125" customWidth="1"/>
+    <col min="8706" max="8706" width="10.1640625" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.25" customWidth="1"/>
+    <col min="8708" max="8708" width="12.1640625" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.125" customWidth="1"/>
-    <col min="8711" max="8711" width="82.25" customWidth="1"/>
-    <col min="8712" max="8712" width="25.75" customWidth="1"/>
-    <col min="8713" max="8713" width="13.625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.875" customWidth="1"/>
-    <col min="8715" max="8715" width="10.125" customWidth="1"/>
+    <col min="8710" max="8710" width="9.1640625" customWidth="1"/>
+    <col min="8711" max="8711" width="82.1640625" customWidth="1"/>
+    <col min="8712" max="8712" width="25.6640625" customWidth="1"/>
+    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.83203125" customWidth="1"/>
+    <col min="8715" max="8715" width="10.1640625" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.75" customWidth="1"/>
-    <col min="8961" max="8961" width="3.875" customWidth="1"/>
-    <col min="8962" max="8962" width="10.125" customWidth="1"/>
+    <col min="8717" max="8717" width="17.6640625" customWidth="1"/>
+    <col min="8961" max="8961" width="3.83203125" customWidth="1"/>
+    <col min="8962" max="8962" width="10.1640625" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.25" customWidth="1"/>
+    <col min="8964" max="8964" width="12.1640625" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.125" customWidth="1"/>
-    <col min="8967" max="8967" width="82.25" customWidth="1"/>
-    <col min="8968" max="8968" width="25.75" customWidth="1"/>
-    <col min="8969" max="8969" width="13.625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.875" customWidth="1"/>
-    <col min="8971" max="8971" width="10.125" customWidth="1"/>
+    <col min="8966" max="8966" width="9.1640625" customWidth="1"/>
+    <col min="8967" max="8967" width="82.1640625" customWidth="1"/>
+    <col min="8968" max="8968" width="25.6640625" customWidth="1"/>
+    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.83203125" customWidth="1"/>
+    <col min="8971" max="8971" width="10.1640625" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.75" customWidth="1"/>
-    <col min="9217" max="9217" width="3.875" customWidth="1"/>
-    <col min="9218" max="9218" width="10.125" customWidth="1"/>
+    <col min="8973" max="8973" width="17.6640625" customWidth="1"/>
+    <col min="9217" max="9217" width="3.83203125" customWidth="1"/>
+    <col min="9218" max="9218" width="10.1640625" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.25" customWidth="1"/>
+    <col min="9220" max="9220" width="12.1640625" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.125" customWidth="1"/>
-    <col min="9223" max="9223" width="82.25" customWidth="1"/>
-    <col min="9224" max="9224" width="25.75" customWidth="1"/>
-    <col min="9225" max="9225" width="13.625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.875" customWidth="1"/>
-    <col min="9227" max="9227" width="10.125" customWidth="1"/>
+    <col min="9222" max="9222" width="9.1640625" customWidth="1"/>
+    <col min="9223" max="9223" width="82.1640625" customWidth="1"/>
+    <col min="9224" max="9224" width="25.6640625" customWidth="1"/>
+    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.83203125" customWidth="1"/>
+    <col min="9227" max="9227" width="10.1640625" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.75" customWidth="1"/>
-    <col min="9473" max="9473" width="3.875" customWidth="1"/>
-    <col min="9474" max="9474" width="10.125" customWidth="1"/>
+    <col min="9229" max="9229" width="17.6640625" customWidth="1"/>
+    <col min="9473" max="9473" width="3.83203125" customWidth="1"/>
+    <col min="9474" max="9474" width="10.1640625" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.25" customWidth="1"/>
+    <col min="9476" max="9476" width="12.1640625" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.125" customWidth="1"/>
-    <col min="9479" max="9479" width="82.25" customWidth="1"/>
-    <col min="9480" max="9480" width="25.75" customWidth="1"/>
-    <col min="9481" max="9481" width="13.625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.875" customWidth="1"/>
-    <col min="9483" max="9483" width="10.125" customWidth="1"/>
+    <col min="9478" max="9478" width="9.1640625" customWidth="1"/>
+    <col min="9479" max="9479" width="82.1640625" customWidth="1"/>
+    <col min="9480" max="9480" width="25.6640625" customWidth="1"/>
+    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.83203125" customWidth="1"/>
+    <col min="9483" max="9483" width="10.1640625" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.75" customWidth="1"/>
-    <col min="9729" max="9729" width="3.875" customWidth="1"/>
-    <col min="9730" max="9730" width="10.125" customWidth="1"/>
+    <col min="9485" max="9485" width="17.6640625" customWidth="1"/>
+    <col min="9729" max="9729" width="3.83203125" customWidth="1"/>
+    <col min="9730" max="9730" width="10.1640625" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.25" customWidth="1"/>
+    <col min="9732" max="9732" width="12.1640625" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.125" customWidth="1"/>
-    <col min="9735" max="9735" width="82.25" customWidth="1"/>
-    <col min="9736" max="9736" width="25.75" customWidth="1"/>
-    <col min="9737" max="9737" width="13.625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.875" customWidth="1"/>
-    <col min="9739" max="9739" width="10.125" customWidth="1"/>
+    <col min="9734" max="9734" width="9.1640625" customWidth="1"/>
+    <col min="9735" max="9735" width="82.1640625" customWidth="1"/>
+    <col min="9736" max="9736" width="25.6640625" customWidth="1"/>
+    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.83203125" customWidth="1"/>
+    <col min="9739" max="9739" width="10.1640625" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.75" customWidth="1"/>
-    <col min="9985" max="9985" width="3.875" customWidth="1"/>
-    <col min="9986" max="9986" width="10.125" customWidth="1"/>
+    <col min="9741" max="9741" width="17.6640625" customWidth="1"/>
+    <col min="9985" max="9985" width="3.83203125" customWidth="1"/>
+    <col min="9986" max="9986" width="10.1640625" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.25" customWidth="1"/>
+    <col min="9988" max="9988" width="12.1640625" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.125" customWidth="1"/>
-    <col min="9991" max="9991" width="82.25" customWidth="1"/>
-    <col min="9992" max="9992" width="25.75" customWidth="1"/>
-    <col min="9993" max="9993" width="13.625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.875" customWidth="1"/>
-    <col min="9995" max="9995" width="10.125" customWidth="1"/>
+    <col min="9990" max="9990" width="9.1640625" customWidth="1"/>
+    <col min="9991" max="9991" width="82.1640625" customWidth="1"/>
+    <col min="9992" max="9992" width="25.6640625" customWidth="1"/>
+    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.83203125" customWidth="1"/>
+    <col min="9995" max="9995" width="10.1640625" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.75" customWidth="1"/>
-    <col min="10241" max="10241" width="3.875" customWidth="1"/>
-    <col min="10242" max="10242" width="10.125" customWidth="1"/>
+    <col min="9997" max="9997" width="17.6640625" customWidth="1"/>
+    <col min="10241" max="10241" width="3.83203125" customWidth="1"/>
+    <col min="10242" max="10242" width="10.1640625" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.25" customWidth="1"/>
+    <col min="10244" max="10244" width="12.1640625" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.125" customWidth="1"/>
-    <col min="10247" max="10247" width="82.25" customWidth="1"/>
-    <col min="10248" max="10248" width="25.75" customWidth="1"/>
-    <col min="10249" max="10249" width="13.625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.875" customWidth="1"/>
-    <col min="10251" max="10251" width="10.125" customWidth="1"/>
+    <col min="10246" max="10246" width="9.1640625" customWidth="1"/>
+    <col min="10247" max="10247" width="82.1640625" customWidth="1"/>
+    <col min="10248" max="10248" width="25.6640625" customWidth="1"/>
+    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.83203125" customWidth="1"/>
+    <col min="10251" max="10251" width="10.1640625" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.75" customWidth="1"/>
-    <col min="10497" max="10497" width="3.875" customWidth="1"/>
-    <col min="10498" max="10498" width="10.125" customWidth="1"/>
+    <col min="10253" max="10253" width="17.6640625" customWidth="1"/>
+    <col min="10497" max="10497" width="3.83203125" customWidth="1"/>
+    <col min="10498" max="10498" width="10.1640625" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.25" customWidth="1"/>
+    <col min="10500" max="10500" width="12.1640625" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.125" customWidth="1"/>
-    <col min="10503" max="10503" width="82.25" customWidth="1"/>
-    <col min="10504" max="10504" width="25.75" customWidth="1"/>
-    <col min="10505" max="10505" width="13.625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.875" customWidth="1"/>
-    <col min="10507" max="10507" width="10.125" customWidth="1"/>
+    <col min="10502" max="10502" width="9.1640625" customWidth="1"/>
+    <col min="10503" max="10503" width="82.1640625" customWidth="1"/>
+    <col min="10504" max="10504" width="25.6640625" customWidth="1"/>
+    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.83203125" customWidth="1"/>
+    <col min="10507" max="10507" width="10.1640625" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.75" customWidth="1"/>
-    <col min="10753" max="10753" width="3.875" customWidth="1"/>
-    <col min="10754" max="10754" width="10.125" customWidth="1"/>
+    <col min="10509" max="10509" width="17.6640625" customWidth="1"/>
+    <col min="10753" max="10753" width="3.83203125" customWidth="1"/>
+    <col min="10754" max="10754" width="10.1640625" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.25" customWidth="1"/>
+    <col min="10756" max="10756" width="12.1640625" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.125" customWidth="1"/>
-    <col min="10759" max="10759" width="82.25" customWidth="1"/>
-    <col min="10760" max="10760" width="25.75" customWidth="1"/>
-    <col min="10761" max="10761" width="13.625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.875" customWidth="1"/>
-    <col min="10763" max="10763" width="10.125" customWidth="1"/>
+    <col min="10758" max="10758" width="9.1640625" customWidth="1"/>
+    <col min="10759" max="10759" width="82.1640625" customWidth="1"/>
+    <col min="10760" max="10760" width="25.6640625" customWidth="1"/>
+    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.83203125" customWidth="1"/>
+    <col min="10763" max="10763" width="10.1640625" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.75" customWidth="1"/>
-    <col min="11009" max="11009" width="3.875" customWidth="1"/>
-    <col min="11010" max="11010" width="10.125" customWidth="1"/>
+    <col min="10765" max="10765" width="17.6640625" customWidth="1"/>
+    <col min="11009" max="11009" width="3.83203125" customWidth="1"/>
+    <col min="11010" max="11010" width="10.1640625" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.25" customWidth="1"/>
+    <col min="11012" max="11012" width="12.1640625" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.125" customWidth="1"/>
-    <col min="11015" max="11015" width="82.25" customWidth="1"/>
-    <col min="11016" max="11016" width="25.75" customWidth="1"/>
-    <col min="11017" max="11017" width="13.625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.875" customWidth="1"/>
-    <col min="11019" max="11019" width="10.125" customWidth="1"/>
+    <col min="11014" max="11014" width="9.1640625" customWidth="1"/>
+    <col min="11015" max="11015" width="82.1640625" customWidth="1"/>
+    <col min="11016" max="11016" width="25.6640625" customWidth="1"/>
+    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.83203125" customWidth="1"/>
+    <col min="11019" max="11019" width="10.1640625" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.75" customWidth="1"/>
-    <col min="11265" max="11265" width="3.875" customWidth="1"/>
-    <col min="11266" max="11266" width="10.125" customWidth="1"/>
+    <col min="11021" max="11021" width="17.6640625" customWidth="1"/>
+    <col min="11265" max="11265" width="3.83203125" customWidth="1"/>
+    <col min="11266" max="11266" width="10.1640625" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.25" customWidth="1"/>
+    <col min="11268" max="11268" width="12.1640625" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.125" customWidth="1"/>
-    <col min="11271" max="11271" width="82.25" customWidth="1"/>
-    <col min="11272" max="11272" width="25.75" customWidth="1"/>
-    <col min="11273" max="11273" width="13.625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.875" customWidth="1"/>
-    <col min="11275" max="11275" width="10.125" customWidth="1"/>
+    <col min="11270" max="11270" width="9.1640625" customWidth="1"/>
+    <col min="11271" max="11271" width="82.1640625" customWidth="1"/>
+    <col min="11272" max="11272" width="25.6640625" customWidth="1"/>
+    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.83203125" customWidth="1"/>
+    <col min="11275" max="11275" width="10.1640625" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.75" customWidth="1"/>
-    <col min="11521" max="11521" width="3.875" customWidth="1"/>
-    <col min="11522" max="11522" width="10.125" customWidth="1"/>
+    <col min="11277" max="11277" width="17.6640625" customWidth="1"/>
+    <col min="11521" max="11521" width="3.83203125" customWidth="1"/>
+    <col min="11522" max="11522" width="10.1640625" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.25" customWidth="1"/>
+    <col min="11524" max="11524" width="12.1640625" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.125" customWidth="1"/>
-    <col min="11527" max="11527" width="82.25" customWidth="1"/>
-    <col min="11528" max="11528" width="25.75" customWidth="1"/>
-    <col min="11529" max="11529" width="13.625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.875" customWidth="1"/>
-    <col min="11531" max="11531" width="10.125" customWidth="1"/>
+    <col min="11526" max="11526" width="9.1640625" customWidth="1"/>
+    <col min="11527" max="11527" width="82.1640625" customWidth="1"/>
+    <col min="11528" max="11528" width="25.6640625" customWidth="1"/>
+    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.83203125" customWidth="1"/>
+    <col min="11531" max="11531" width="10.1640625" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.75" customWidth="1"/>
-    <col min="11777" max="11777" width="3.875" customWidth="1"/>
-    <col min="11778" max="11778" width="10.125" customWidth="1"/>
+    <col min="11533" max="11533" width="17.6640625" customWidth="1"/>
+    <col min="11777" max="11777" width="3.83203125" customWidth="1"/>
+    <col min="11778" max="11778" width="10.1640625" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.25" customWidth="1"/>
+    <col min="11780" max="11780" width="12.1640625" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.125" customWidth="1"/>
-    <col min="11783" max="11783" width="82.25" customWidth="1"/>
-    <col min="11784" max="11784" width="25.75" customWidth="1"/>
-    <col min="11785" max="11785" width="13.625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.875" customWidth="1"/>
-    <col min="11787" max="11787" width="10.125" customWidth="1"/>
+    <col min="11782" max="11782" width="9.1640625" customWidth="1"/>
+    <col min="11783" max="11783" width="82.1640625" customWidth="1"/>
+    <col min="11784" max="11784" width="25.6640625" customWidth="1"/>
+    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.83203125" customWidth="1"/>
+    <col min="11787" max="11787" width="10.1640625" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.75" customWidth="1"/>
-    <col min="12033" max="12033" width="3.875" customWidth="1"/>
-    <col min="12034" max="12034" width="10.125" customWidth="1"/>
+    <col min="11789" max="11789" width="17.6640625" customWidth="1"/>
+    <col min="12033" max="12033" width="3.83203125" customWidth="1"/>
+    <col min="12034" max="12034" width="10.1640625" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.25" customWidth="1"/>
+    <col min="12036" max="12036" width="12.1640625" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.125" customWidth="1"/>
-    <col min="12039" max="12039" width="82.25" customWidth="1"/>
-    <col min="12040" max="12040" width="25.75" customWidth="1"/>
-    <col min="12041" max="12041" width="13.625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.875" customWidth="1"/>
-    <col min="12043" max="12043" width="10.125" customWidth="1"/>
+    <col min="12038" max="12038" width="9.1640625" customWidth="1"/>
+    <col min="12039" max="12039" width="82.1640625" customWidth="1"/>
+    <col min="12040" max="12040" width="25.6640625" customWidth="1"/>
+    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.83203125" customWidth="1"/>
+    <col min="12043" max="12043" width="10.1640625" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.75" customWidth="1"/>
-    <col min="12289" max="12289" width="3.875" customWidth="1"/>
-    <col min="12290" max="12290" width="10.125" customWidth="1"/>
+    <col min="12045" max="12045" width="17.6640625" customWidth="1"/>
+    <col min="12289" max="12289" width="3.83203125" customWidth="1"/>
+    <col min="12290" max="12290" width="10.1640625" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.25" customWidth="1"/>
+    <col min="12292" max="12292" width="12.1640625" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.125" customWidth="1"/>
-    <col min="12295" max="12295" width="82.25" customWidth="1"/>
-    <col min="12296" max="12296" width="25.75" customWidth="1"/>
-    <col min="12297" max="12297" width="13.625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.875" customWidth="1"/>
-    <col min="12299" max="12299" width="10.125" customWidth="1"/>
+    <col min="12294" max="12294" width="9.1640625" customWidth="1"/>
+    <col min="12295" max="12295" width="82.1640625" customWidth="1"/>
+    <col min="12296" max="12296" width="25.6640625" customWidth="1"/>
+    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.83203125" customWidth="1"/>
+    <col min="12299" max="12299" width="10.1640625" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.75" customWidth="1"/>
-    <col min="12545" max="12545" width="3.875" customWidth="1"/>
-    <col min="12546" max="12546" width="10.125" customWidth="1"/>
+    <col min="12301" max="12301" width="17.6640625" customWidth="1"/>
+    <col min="12545" max="12545" width="3.83203125" customWidth="1"/>
+    <col min="12546" max="12546" width="10.1640625" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.25" customWidth="1"/>
+    <col min="12548" max="12548" width="12.1640625" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.125" customWidth="1"/>
-    <col min="12551" max="12551" width="82.25" customWidth="1"/>
-    <col min="12552" max="12552" width="25.75" customWidth="1"/>
-    <col min="12553" max="12553" width="13.625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.875" customWidth="1"/>
-    <col min="12555" max="12555" width="10.125" customWidth="1"/>
+    <col min="12550" max="12550" width="9.1640625" customWidth="1"/>
+    <col min="12551" max="12551" width="82.1640625" customWidth="1"/>
+    <col min="12552" max="12552" width="25.6640625" customWidth="1"/>
+    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.83203125" customWidth="1"/>
+    <col min="12555" max="12555" width="10.1640625" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.75" customWidth="1"/>
-    <col min="12801" max="12801" width="3.875" customWidth="1"/>
-    <col min="12802" max="12802" width="10.125" customWidth="1"/>
+    <col min="12557" max="12557" width="17.6640625" customWidth="1"/>
+    <col min="12801" max="12801" width="3.83203125" customWidth="1"/>
+    <col min="12802" max="12802" width="10.1640625" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.25" customWidth="1"/>
+    <col min="12804" max="12804" width="12.1640625" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.125" customWidth="1"/>
-    <col min="12807" max="12807" width="82.25" customWidth="1"/>
-    <col min="12808" max="12808" width="25.75" customWidth="1"/>
-    <col min="12809" max="12809" width="13.625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.875" customWidth="1"/>
-    <col min="12811" max="12811" width="10.125" customWidth="1"/>
+    <col min="12806" max="12806" width="9.1640625" customWidth="1"/>
+    <col min="12807" max="12807" width="82.1640625" customWidth="1"/>
+    <col min="12808" max="12808" width="25.6640625" customWidth="1"/>
+    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.83203125" customWidth="1"/>
+    <col min="12811" max="12811" width="10.1640625" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.75" customWidth="1"/>
-    <col min="13057" max="13057" width="3.875" customWidth="1"/>
-    <col min="13058" max="13058" width="10.125" customWidth="1"/>
+    <col min="12813" max="12813" width="17.6640625" customWidth="1"/>
+    <col min="13057" max="13057" width="3.83203125" customWidth="1"/>
+    <col min="13058" max="13058" width="10.1640625" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.25" customWidth="1"/>
+    <col min="13060" max="13060" width="12.1640625" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.125" customWidth="1"/>
-    <col min="13063" max="13063" width="82.25" customWidth="1"/>
-    <col min="13064" max="13064" width="25.75" customWidth="1"/>
-    <col min="13065" max="13065" width="13.625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.875" customWidth="1"/>
-    <col min="13067" max="13067" width="10.125" customWidth="1"/>
+    <col min="13062" max="13062" width="9.1640625" customWidth="1"/>
+    <col min="13063" max="13063" width="82.1640625" customWidth="1"/>
+    <col min="13064" max="13064" width="25.6640625" customWidth="1"/>
+    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.83203125" customWidth="1"/>
+    <col min="13067" max="13067" width="10.1640625" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.75" customWidth="1"/>
-    <col min="13313" max="13313" width="3.875" customWidth="1"/>
-    <col min="13314" max="13314" width="10.125" customWidth="1"/>
+    <col min="13069" max="13069" width="17.6640625" customWidth="1"/>
+    <col min="13313" max="13313" width="3.83203125" customWidth="1"/>
+    <col min="13314" max="13314" width="10.1640625" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.25" customWidth="1"/>
+    <col min="13316" max="13316" width="12.1640625" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.125" customWidth="1"/>
-    <col min="13319" max="13319" width="82.25" customWidth="1"/>
-    <col min="13320" max="13320" width="25.75" customWidth="1"/>
-    <col min="13321" max="13321" width="13.625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.875" customWidth="1"/>
-    <col min="13323" max="13323" width="10.125" customWidth="1"/>
+    <col min="13318" max="13318" width="9.1640625" customWidth="1"/>
+    <col min="13319" max="13319" width="82.1640625" customWidth="1"/>
+    <col min="13320" max="13320" width="25.6640625" customWidth="1"/>
+    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.83203125" customWidth="1"/>
+    <col min="13323" max="13323" width="10.1640625" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.75" customWidth="1"/>
-    <col min="13569" max="13569" width="3.875" customWidth="1"/>
-    <col min="13570" max="13570" width="10.125" customWidth="1"/>
+    <col min="13325" max="13325" width="17.6640625" customWidth="1"/>
+    <col min="13569" max="13569" width="3.83203125" customWidth="1"/>
+    <col min="13570" max="13570" width="10.1640625" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.25" customWidth="1"/>
+    <col min="13572" max="13572" width="12.1640625" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.125" customWidth="1"/>
-    <col min="13575" max="13575" width="82.25" customWidth="1"/>
-    <col min="13576" max="13576" width="25.75" customWidth="1"/>
-    <col min="13577" max="13577" width="13.625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.875" customWidth="1"/>
-    <col min="13579" max="13579" width="10.125" customWidth="1"/>
+    <col min="13574" max="13574" width="9.1640625" customWidth="1"/>
+    <col min="13575" max="13575" width="82.1640625" customWidth="1"/>
+    <col min="13576" max="13576" width="25.6640625" customWidth="1"/>
+    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.83203125" customWidth="1"/>
+    <col min="13579" max="13579" width="10.1640625" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.75" customWidth="1"/>
-    <col min="13825" max="13825" width="3.875" customWidth="1"/>
-    <col min="13826" max="13826" width="10.125" customWidth="1"/>
+    <col min="13581" max="13581" width="17.6640625" customWidth="1"/>
+    <col min="13825" max="13825" width="3.83203125" customWidth="1"/>
+    <col min="13826" max="13826" width="10.1640625" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.25" customWidth="1"/>
+    <col min="13828" max="13828" width="12.1640625" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.125" customWidth="1"/>
-    <col min="13831" max="13831" width="82.25" customWidth="1"/>
-    <col min="13832" max="13832" width="25.75" customWidth="1"/>
-    <col min="13833" max="13833" width="13.625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.875" customWidth="1"/>
-    <col min="13835" max="13835" width="10.125" customWidth="1"/>
+    <col min="13830" max="13830" width="9.1640625" customWidth="1"/>
+    <col min="13831" max="13831" width="82.1640625" customWidth="1"/>
+    <col min="13832" max="13832" width="25.6640625" customWidth="1"/>
+    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.83203125" customWidth="1"/>
+    <col min="13835" max="13835" width="10.1640625" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.75" customWidth="1"/>
-    <col min="14081" max="14081" width="3.875" customWidth="1"/>
-    <col min="14082" max="14082" width="10.125" customWidth="1"/>
+    <col min="13837" max="13837" width="17.6640625" customWidth="1"/>
+    <col min="14081" max="14081" width="3.83203125" customWidth="1"/>
+    <col min="14082" max="14082" width="10.1640625" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.25" customWidth="1"/>
+    <col min="14084" max="14084" width="12.1640625" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.125" customWidth="1"/>
-    <col min="14087" max="14087" width="82.25" customWidth="1"/>
-    <col min="14088" max="14088" width="25.75" customWidth="1"/>
-    <col min="14089" max="14089" width="13.625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.875" customWidth="1"/>
-    <col min="14091" max="14091" width="10.125" customWidth="1"/>
+    <col min="14086" max="14086" width="9.1640625" customWidth="1"/>
+    <col min="14087" max="14087" width="82.1640625" customWidth="1"/>
+    <col min="14088" max="14088" width="25.6640625" customWidth="1"/>
+    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.83203125" customWidth="1"/>
+    <col min="14091" max="14091" width="10.1640625" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.75" customWidth="1"/>
-    <col min="14337" max="14337" width="3.875" customWidth="1"/>
-    <col min="14338" max="14338" width="10.125" customWidth="1"/>
+    <col min="14093" max="14093" width="17.6640625" customWidth="1"/>
+    <col min="14337" max="14337" width="3.83203125" customWidth="1"/>
+    <col min="14338" max="14338" width="10.1640625" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.25" customWidth="1"/>
+    <col min="14340" max="14340" width="12.1640625" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.125" customWidth="1"/>
-    <col min="14343" max="14343" width="82.25" customWidth="1"/>
-    <col min="14344" max="14344" width="25.75" customWidth="1"/>
-    <col min="14345" max="14345" width="13.625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.875" customWidth="1"/>
-    <col min="14347" max="14347" width="10.125" customWidth="1"/>
+    <col min="14342" max="14342" width="9.1640625" customWidth="1"/>
+    <col min="14343" max="14343" width="82.1640625" customWidth="1"/>
+    <col min="14344" max="14344" width="25.6640625" customWidth="1"/>
+    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.83203125" customWidth="1"/>
+    <col min="14347" max="14347" width="10.1640625" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.75" customWidth="1"/>
-    <col min="14593" max="14593" width="3.875" customWidth="1"/>
-    <col min="14594" max="14594" width="10.125" customWidth="1"/>
+    <col min="14349" max="14349" width="17.6640625" customWidth="1"/>
+    <col min="14593" max="14593" width="3.83203125" customWidth="1"/>
+    <col min="14594" max="14594" width="10.1640625" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.25" customWidth="1"/>
+    <col min="14596" max="14596" width="12.1640625" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.125" customWidth="1"/>
-    <col min="14599" max="14599" width="82.25" customWidth="1"/>
-    <col min="14600" max="14600" width="25.75" customWidth="1"/>
-    <col min="14601" max="14601" width="13.625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.875" customWidth="1"/>
-    <col min="14603" max="14603" width="10.125" customWidth="1"/>
+    <col min="14598" max="14598" width="9.1640625" customWidth="1"/>
+    <col min="14599" max="14599" width="82.1640625" customWidth="1"/>
+    <col min="14600" max="14600" width="25.6640625" customWidth="1"/>
+    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.83203125" customWidth="1"/>
+    <col min="14603" max="14603" width="10.1640625" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.75" customWidth="1"/>
-    <col min="14849" max="14849" width="3.875" customWidth="1"/>
-    <col min="14850" max="14850" width="10.125" customWidth="1"/>
+    <col min="14605" max="14605" width="17.6640625" customWidth="1"/>
+    <col min="14849" max="14849" width="3.83203125" customWidth="1"/>
+    <col min="14850" max="14850" width="10.1640625" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.25" customWidth="1"/>
+    <col min="14852" max="14852" width="12.1640625" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.125" customWidth="1"/>
-    <col min="14855" max="14855" width="82.25" customWidth="1"/>
-    <col min="14856" max="14856" width="25.75" customWidth="1"/>
-    <col min="14857" max="14857" width="13.625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.875" customWidth="1"/>
-    <col min="14859" max="14859" width="10.125" customWidth="1"/>
+    <col min="14854" max="14854" width="9.1640625" customWidth="1"/>
+    <col min="14855" max="14855" width="82.1640625" customWidth="1"/>
+    <col min="14856" max="14856" width="25.6640625" customWidth="1"/>
+    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.83203125" customWidth="1"/>
+    <col min="14859" max="14859" width="10.1640625" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.75" customWidth="1"/>
-    <col min="15105" max="15105" width="3.875" customWidth="1"/>
-    <col min="15106" max="15106" width="10.125" customWidth="1"/>
+    <col min="14861" max="14861" width="17.6640625" customWidth="1"/>
+    <col min="15105" max="15105" width="3.83203125" customWidth="1"/>
+    <col min="15106" max="15106" width="10.1640625" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.25" customWidth="1"/>
+    <col min="15108" max="15108" width="12.1640625" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.125" customWidth="1"/>
-    <col min="15111" max="15111" width="82.25" customWidth="1"/>
-    <col min="15112" max="15112" width="25.75" customWidth="1"/>
-    <col min="15113" max="15113" width="13.625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.875" customWidth="1"/>
-    <col min="15115" max="15115" width="10.125" customWidth="1"/>
+    <col min="15110" max="15110" width="9.1640625" customWidth="1"/>
+    <col min="15111" max="15111" width="82.1640625" customWidth="1"/>
+    <col min="15112" max="15112" width="25.6640625" customWidth="1"/>
+    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.83203125" customWidth="1"/>
+    <col min="15115" max="15115" width="10.1640625" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.75" customWidth="1"/>
-    <col min="15361" max="15361" width="3.875" customWidth="1"/>
-    <col min="15362" max="15362" width="10.125" customWidth="1"/>
+    <col min="15117" max="15117" width="17.6640625" customWidth="1"/>
+    <col min="15361" max="15361" width="3.83203125" customWidth="1"/>
+    <col min="15362" max="15362" width="10.1640625" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.25" customWidth="1"/>
+    <col min="15364" max="15364" width="12.1640625" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.125" customWidth="1"/>
-    <col min="15367" max="15367" width="82.25" customWidth="1"/>
-    <col min="15368" max="15368" width="25.75" customWidth="1"/>
-    <col min="15369" max="15369" width="13.625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.875" customWidth="1"/>
-    <col min="15371" max="15371" width="10.125" customWidth="1"/>
+    <col min="15366" max="15366" width="9.1640625" customWidth="1"/>
+    <col min="15367" max="15367" width="82.1640625" customWidth="1"/>
+    <col min="15368" max="15368" width="25.6640625" customWidth="1"/>
+    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.83203125" customWidth="1"/>
+    <col min="15371" max="15371" width="10.1640625" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.75" customWidth="1"/>
-    <col min="15617" max="15617" width="3.875" customWidth="1"/>
-    <col min="15618" max="15618" width="10.125" customWidth="1"/>
+    <col min="15373" max="15373" width="17.6640625" customWidth="1"/>
+    <col min="15617" max="15617" width="3.83203125" customWidth="1"/>
+    <col min="15618" max="15618" width="10.1640625" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.25" customWidth="1"/>
+    <col min="15620" max="15620" width="12.1640625" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.125" customWidth="1"/>
-    <col min="15623" max="15623" width="82.25" customWidth="1"/>
-    <col min="15624" max="15624" width="25.75" customWidth="1"/>
-    <col min="15625" max="15625" width="13.625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.875" customWidth="1"/>
-    <col min="15627" max="15627" width="10.125" customWidth="1"/>
+    <col min="15622" max="15622" width="9.1640625" customWidth="1"/>
+    <col min="15623" max="15623" width="82.1640625" customWidth="1"/>
+    <col min="15624" max="15624" width="25.6640625" customWidth="1"/>
+    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.83203125" customWidth="1"/>
+    <col min="15627" max="15627" width="10.1640625" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.75" customWidth="1"/>
-    <col min="15873" max="15873" width="3.875" customWidth="1"/>
-    <col min="15874" max="15874" width="10.125" customWidth="1"/>
+    <col min="15629" max="15629" width="17.6640625" customWidth="1"/>
+    <col min="15873" max="15873" width="3.83203125" customWidth="1"/>
+    <col min="15874" max="15874" width="10.1640625" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.25" customWidth="1"/>
+    <col min="15876" max="15876" width="12.1640625" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.125" customWidth="1"/>
-    <col min="15879" max="15879" width="82.25" customWidth="1"/>
-    <col min="15880" max="15880" width="25.75" customWidth="1"/>
-    <col min="15881" max="15881" width="13.625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.875" customWidth="1"/>
-    <col min="15883" max="15883" width="10.125" customWidth="1"/>
+    <col min="15878" max="15878" width="9.1640625" customWidth="1"/>
+    <col min="15879" max="15879" width="82.1640625" customWidth="1"/>
+    <col min="15880" max="15880" width="25.6640625" customWidth="1"/>
+    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.83203125" customWidth="1"/>
+    <col min="15883" max="15883" width="10.1640625" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.75" customWidth="1"/>
-    <col min="16129" max="16129" width="3.875" customWidth="1"/>
-    <col min="16130" max="16130" width="10.125" customWidth="1"/>
+    <col min="15885" max="15885" width="17.6640625" customWidth="1"/>
+    <col min="16129" max="16129" width="3.83203125" customWidth="1"/>
+    <col min="16130" max="16130" width="10.1640625" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.25" customWidth="1"/>
+    <col min="16132" max="16132" width="12.1640625" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.125" customWidth="1"/>
-    <col min="16135" max="16135" width="82.25" customWidth="1"/>
-    <col min="16136" max="16136" width="25.75" customWidth="1"/>
-    <col min="16137" max="16137" width="13.625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.875" customWidth="1"/>
-    <col min="16139" max="16139" width="10.125" customWidth="1"/>
+    <col min="16134" max="16134" width="9.1640625" customWidth="1"/>
+    <col min="16135" max="16135" width="82.1640625" customWidth="1"/>
+    <col min="16136" max="16136" width="25.6640625" customWidth="1"/>
+    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.83203125" customWidth="1"/>
+    <col min="16139" max="16139" width="10.1640625" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.75" customWidth="1"/>
+    <col min="16141" max="16141" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -6702,7 +6729,7 @@
       <c r="L2" s="51"/>
       <c r="M2" s="52"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -6743,7 +6770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.15">
       <c r="A4" s="46">
         <v>1</v>
       </c>
@@ -6782,7 +6809,7 @@
       </c>
       <c r="M4" s="46"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -6797,7 +6824,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -6812,7 +6839,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -6827,7 +6854,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -6842,7 +6869,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -6857,7 +6884,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -6872,7 +6899,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -6887,7 +6914,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -6902,7 +6929,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6917,7 +6944,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -6932,7 +6959,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -6947,7 +6974,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
